--- a/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
+++ b/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Documents\GitHub\hikr90\02. 프로젝트\01. 인트라넷\01. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FA6A9C-D893-47C3-8AD1-E2B282157CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C791F716-71E7-4629-A903-3BFCD1DCD570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="INTR_EMP" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="140">
   <si>
     <t>INTR_EMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,6 +557,10 @@
   </si>
   <si>
     <t>intrScheInqy1010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hikr90@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,6 +665,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED9CAE0-F0FC-46D6-87C7-B3C537CB4E4F}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1063,14 +1070,16 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3"/>
       <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3">
-        <v>1111</v>
+      <c r="K3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>16</v>
@@ -1078,7 +1087,7 @@
       <c r="M3" s="3"/>
       <c r="O3" s="4" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"',"&amp;L3&amp;",'"&amp;M3&amp;"');"</f>
-        <v>INSERT INTO INTR_EMP VALUES('EMP_0000','DEPT_0001','GRADE_0001','관리자','','','','','','ADMIN','1111',TO_CHAR(SYSDATE,'YYYYMMDD'),'');</v>
+        <v>INSERT INTO INTR_EMP VALUES('EMP_0000','DEPT_0001','GRADE_0001','관리자','','','hikr90@gmail.com','','','ADMIN','ADMIN',TO_CHAR(SYSDATE,'YYYYMMDD'),'');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2096,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2694,11 +2703,11 @@
         <v>45</v>
       </c>
       <c r="G25" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0023','ADMIN','템플릿 양식 관리','MENU_0020','','Y','24','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0023','ADMIN','템플릿 양식 관리','MENU_0020','','Y','23','');</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2715,11 +2724,11 @@
         <v>45</v>
       </c>
       <c r="G26" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0024','ADMIN','시스템 관리','','','Y','27','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0024','ADMIN','시스템 관리','','','Y','24','');</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2742,11 +2751,11 @@
         <v>45</v>
       </c>
       <c r="G27" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0025','ADMIN','권한 관리','MENU_0024','intrAuthInqy1010.do','Y','29','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0025','ADMIN','권한 관리','MENU_0024','intrAuthInqy1010.do','Y','25','');</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2769,11 +2778,11 @@
         <v>45</v>
       </c>
       <c r="G28" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0026','ADMIN','메뉴 권한 부여','MENU_0024','intrAuthInqy2010.do','Y','30','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0026','ADMIN','메뉴 권한 부여','MENU_0024','intrAuthInqy2010.do','Y','26','');</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2796,11 +2805,11 @@
         <v>45</v>
       </c>
       <c r="G29" s="3">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0027','ADMIN','사용자 권한 부여','MENU_0024','intrAuthInqy3010.do','Y','31','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0027','ADMIN','사용자 권한 부여','MENU_0024','intrAuthInqy3010.do','Y','27','');</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2820,11 +2829,11 @@
         <v>45</v>
       </c>
       <c r="G30" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0028','ADMIN','쿼리','MENU_0024','','Y','32','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0028','ADMIN','쿼리','MENU_0024','','Y','28','');</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">

--- a/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
+++ b/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Documents\GitHub\hikr90\02. 프로젝트\01. 인트라넷\01. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C791F716-71E7-4629-A903-3BFCD1DCD570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D819EE32-F4B7-47E9-8181-83E058E54FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="INTR_EMP" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="137">
   <si>
     <t>INTR_EMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,10 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업무 일지 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intrTaskInqy2010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,10 +404,6 @@
     <t>MENU_0030</t>
   </si>
   <si>
-    <t>쿼리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>템플릿 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,10 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설문조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공유정보 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,10 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설문조사 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intrQnaInqy1010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,9 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MENU_0028</t>
-  </si>
-  <si>
     <t>intrTempInqy1010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,6 +538,18 @@
   </si>
   <si>
     <t>hikr90@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 일지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,9 +654,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED9CAE0-F0FC-46D6-87C7-B3C537CB4E4F}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1057,21 +1043,21 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>139</v>
+      <c r="G3" t="s">
+        <v>133</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3"/>
@@ -1121,7 +1107,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1130,7 +1116,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
@@ -1147,13 +1133,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1166,13 +1152,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -1184,13 +1170,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
@@ -1202,13 +1188,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -1220,13 +1206,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -1238,13 +1224,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5">
         <v>6</v>
@@ -1256,13 +1242,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
@@ -1274,13 +1260,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -1292,13 +1278,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
@@ -1310,13 +1296,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5">
         <v>10</v>
@@ -1328,13 +1314,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3">
         <v>11</v>
@@ -1346,13 +1332,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5">
         <v>12</v>
@@ -1364,13 +1350,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3">
         <v>13</v>
@@ -1382,13 +1368,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5">
         <v>14</v>
@@ -1400,13 +1386,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3">
         <v>15</v>
@@ -1418,13 +1404,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5">
         <v>16</v>
@@ -1436,13 +1422,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3">
         <v>17</v>
@@ -1454,13 +1440,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="5">
         <v>18</v>
@@ -1472,13 +1458,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3">
         <v>19</v>
@@ -1490,13 +1476,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="5">
         <v>20</v>
@@ -1508,13 +1494,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="3">
         <v>21</v>
@@ -1526,13 +1512,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="5">
         <v>22</v>
@@ -1544,13 +1530,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3">
         <v>23</v>
@@ -1562,13 +1548,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="5">
         <v>24</v>
@@ -1580,13 +1566,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3">
         <v>25</v>
@@ -1598,13 +1584,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="5">
         <v>26</v>
@@ -1616,13 +1602,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="3">
         <v>27</v>
@@ -1634,13 +1620,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="5">
         <v>28</v>
@@ -1652,13 +1638,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="3">
         <v>29</v>
@@ -1670,13 +1656,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5">
         <v>30</v>
@@ -1688,13 +1674,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3">
         <v>31</v>
@@ -1734,7 +1720,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1743,7 +1729,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1854,7 +1840,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1862,10 +1848,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -1879,13 +1865,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1927,7 +1913,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1935,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1949,13 +1935,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2003,13 +1989,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -2057,12 +2043,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
@@ -2103,16 +2089,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="3" bestFit="1" customWidth="1"/>
@@ -2159,685 +2145,661 @@
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
+      <c r="B3" s="3">
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="J3" s="4" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"');"</f>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0001','USER','공유 정보','','','Y','1','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0001','0','공유 정보','','','Y','1','');</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
       </c>
       <c r="J4" s="4" t="str">
-        <f t="shared" ref="J4:J30" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0002','USER','공지사항','MENU_0001','intrBoardInqy2010.do','Y','2','');</v>
+        <f t="shared" ref="J4:J29" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0002','0','공지사항','MENU_0001','intrBoardInqy2010.do','Y','2','');</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
       </c>
       <c r="J5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0003','USER','일정관리','MENU_0001','intrScheInqy1010.do','Y','3','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0003','0','일정관리','MENU_0001','intrScheInqy1010.do','Y','3','');</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3">
         <v>4</v>
       </c>
       <c r="J6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0004','USER','연락처','MENU_0001','intrEmpInqy2010.do','Y','4','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0004','0','연락처','MENU_0001','intrEmpInqy2010.do','Y','4','');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
       <c r="J7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0005','USER','전자결재','','','Y','5','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0005','0','전자결재','','','Y','5','');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3">
         <v>6</v>
       </c>
       <c r="J8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0006','USER','기안서 작성','MENU_0005','','Y','6','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0006','0','기안서 작성','MENU_0005','','Y','6','');</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3">
         <v>7</v>
       </c>
       <c r="J9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0007','USER','결재 조회','MENU_0005','','Y','7','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0007','0','결재 조회','MENU_0005','','Y','7','');</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3">
         <v>8</v>
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0008','USER','결재 처리','MENU_0005','','Y','8','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0008','0','결재 처리','MENU_0005','','Y','8','');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3">
         <v>9</v>
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0009','USER','업무 관리','','','Y','9','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0009','0','업무 관리','','','Y','9','');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3">
         <v>10</v>
       </c>
       <c r="J12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0010','USER','업무 일지 작성','MENU_0009','intrTaskInqy2010.do','Y','10','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0010','0','업무 일지','MENU_0009','intrTaskInqy2010.do','Y','10','');</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="3">
         <v>11</v>
       </c>
       <c r="J13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0011','USER','설문조사','MENU_0009','','Y','11','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0011','0','전자메일','MENU_0009','','Y','11','');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3">
         <v>12</v>
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0012','USER','Q&amp;A','','intrQnaInqy1010.do','Y','12','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0012','0','Q&amp;A','','intrQnaInqy1010.do','Y','12','');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>74</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3">
         <v>13</v>
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0013','ADMIN','공유정보 관리','','','Y','13','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0013','1','공유정보 관리','','','Y','13','');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>75</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="3">
         <v>14</v>
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0014','ADMIN','공지사항 관리','MENU_0013','intrBoardInqy1010.do','Y','14','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0014','1','공지사항 관리','MENU_0013','intrBoardInqy1010.do','Y','14','');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="3">
         <v>15</v>
       </c>
       <c r="J17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0015','ADMIN','팝업 관리','MENU_0013','','Y','15','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0015','1','팝업 관리','MENU_0013','','Y','15','');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="3">
         <v>16</v>
       </c>
       <c r="J18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0016','ADMIN','설문조사 관리','MENU_0013','','Y','16','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0016','1','메일 관리','MENU_0013','','Y','16','');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="3">
         <v>17</v>
       </c>
       <c r="J19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0017','ADMIN','사내 관리','','','Y','17','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0017','1','사내 관리','','','Y','17','');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>79</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="3">
         <v>18</v>
       </c>
       <c r="J20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0018','ADMIN','사원 관리','MENU_0017','intrEmpInqy1010.do','Y','18','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0018','1','사원 관리','MENU_0017','intrEmpInqy1010.do','Y','18','');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="3">
         <v>19</v>
       </c>
       <c r="J21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0019','ADMIN','업무일지 관리','MENU_0017','','Y','19','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0019','1','업무일지 관리','MENU_0017','','Y','19','');</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="3">
         <v>20</v>
       </c>
       <c r="J22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0020','ADMIN','전자결재 관리','','','Y','20','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0020','1','전자결재 관리','','','Y','20','');</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="3">
         <v>21</v>
       </c>
       <c r="J23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0021','ADMIN','기안서 조회','MENU_0020','','Y','21','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0021','1','기안서 조회','MENU_0020','','Y','21','');</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>83</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="3">
         <v>22</v>
       </c>
       <c r="J24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0022','ADMIN','템플릿 관리','MENU_0020','intrTempInqy1010.do','Y','22','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0022','1','템플릿 관리','MENU_0020','intrTempInqy1010.do','Y','22','');</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>84</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="3">
         <v>23</v>
       </c>
       <c r="J25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0023','ADMIN','템플릿 양식 관리','MENU_0020','','Y','23','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0023','1','템플릿 양식 관리','MENU_0020','','Y','23','');</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3">
         <v>24</v>
       </c>
       <c r="J26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0024','ADMIN','시스템 관리','','','Y','24','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0024','1','시스템 관리','','','Y','24','');</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>15</v>
+        <v>86</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" s="3">
         <v>25</v>
       </c>
       <c r="J27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0025','ADMIN','권한 관리','MENU_0024','intrAuthInqy1010.do','Y','25','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0025','1','권한 관리','MENU_0024','intrAuthInqy1010.do','Y','25','');</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>87</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" s="3">
         <v>26</v>
       </c>
       <c r="J28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0026','ADMIN','메뉴 권한 부여','MENU_0024','intrAuthInqy2010.do','Y','26','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0026','1','메뉴 권한 부여','MENU_0024','intrAuthInqy2010.do','Y','26','');</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>15</v>
+        <v>88</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" s="3">
         <v>27</v>
       </c>
       <c r="J29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0027','ADMIN','사용자 권한 부여','MENU_0024','intrAuthInqy3010.do','Y','27','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0027','1','사용자 권한 부여','MENU_0024','intrAuthInqy3010.do','Y','27','');</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="3">
-        <v>28</v>
-      </c>
-      <c r="J30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0028','ADMIN','쿼리','MENU_0024','','Y','28','');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2919,7 +2881,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2928,10 +2890,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2945,13 +2907,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>

--- a/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
+++ b/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Documents\GitHub\hikr90\02. 프로젝트\01. 인트라넷\01. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D819EE32-F4B7-47E9-8181-83E058E54FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9E7DD8-D99E-479D-9FB0-5E5F70CBDDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="INTR_EMP" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="130">
   <si>
     <t>INTR_EMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,17 +229,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연락처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MENU_0005</t>
   </si>
   <si>
-    <t>MENU_0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기안서 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,10 +271,6 @@
     <t>MENU_0011</t>
   </si>
   <si>
-    <t>Q&amp;A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MENU_0012</t>
   </si>
   <si>
@@ -428,10 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>intrQnaInqy1010.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intrEmpInqy2010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,14 +509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업무일지 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>템플릿 양식 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intrScheInqy1010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,15 +517,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전자메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무 일지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메일 관리</t>
+    <t>업무 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,13 +1015,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -1057,7 +1029,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3"/>
@@ -1107,7 +1079,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1116,7 +1088,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
@@ -1133,7 +1105,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>43</v>
@@ -1152,10 +1124,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>44</v>
@@ -1170,10 +1142,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>44</v>
@@ -1188,10 +1160,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>44</v>
@@ -1206,10 +1178,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>44</v>
@@ -1224,10 +1196,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>44</v>
@@ -1242,10 +1214,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>44</v>
@@ -1260,10 +1232,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>44</v>
@@ -1278,10 +1250,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>44</v>
@@ -1296,10 +1268,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>44</v>
@@ -1314,10 +1286,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>44</v>
@@ -1332,10 +1304,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>44</v>
@@ -1350,10 +1322,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>44</v>
@@ -1368,10 +1340,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>44</v>
@@ -1386,10 +1358,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>44</v>
@@ -1404,10 +1376,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>44</v>
@@ -1422,10 +1394,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>44</v>
@@ -1440,10 +1412,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>44</v>
@@ -1458,10 +1430,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>44</v>
@@ -1476,10 +1448,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>44</v>
@@ -1494,10 +1466,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>44</v>
@@ -1512,10 +1484,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>44</v>
@@ -1530,10 +1502,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>44</v>
@@ -1548,10 +1520,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>44</v>
@@ -1566,10 +1538,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>44</v>
@@ -1584,10 +1556,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>44</v>
@@ -1602,10 +1574,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>44</v>
@@ -1620,10 +1592,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>44</v>
@@ -1638,10 +1610,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>44</v>
@@ -1656,10 +1628,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>44</v>
@@ -1674,10 +1646,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>44</v>
@@ -1720,7 +1692,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1729,7 +1701,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1840,7 +1812,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1848,10 +1820,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -1865,10 +1837,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -1913,7 +1885,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1921,7 +1893,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1935,7 +1907,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1989,13 +1961,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -2043,12 +2015,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
@@ -2089,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2164,7 +2136,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -2176,7 +2148,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>44</v>
@@ -2185,13 +2157,13 @@
         <v>2</v>
       </c>
       <c r="J4" s="4" t="str">
-        <f t="shared" ref="J4:J29" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
+        <f t="shared" ref="J4:J24" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
         <v>INSERT INTO INTR_MENU VALUES('MENU_0002','0','공지사항','MENU_0001','intrBoardInqy2010.do','Y','2','');</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2203,7 +2175,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>44</v>
@@ -2218,19 +2190,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>44</v>
@@ -2240,18 +2206,21 @@
       </c>
       <c r="J6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0004','0','연락처','MENU_0001','intrEmpInqy2010.do','Y','4','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0004','0','전자결재','','','Y','4','');</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>44</v>
@@ -2261,21 +2230,21 @@
       </c>
       <c r="J7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0005','0','전자결재','','','Y','5','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0005','0','기안서 작성','MENU_0004','','Y','5','');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>44</v>
@@ -2285,21 +2254,21 @@
       </c>
       <c r="J8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0006','0','기안서 작성','MENU_0005','','Y','6','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0006','0','결재 조회','MENU_0004','','Y','6','');</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>44</v>
@@ -2309,21 +2278,21 @@
       </c>
       <c r="J9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0007','0','결재 조회','MENU_0005','','Y','7','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0007','0','결재 처리','MENU_0004','','Y','7','');</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>128</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>44</v>
@@ -2333,18 +2302,21 @@
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0008','0','결재 처리','MENU_0005','','Y','8','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0008','0','업무 작성','','intrTaskInqy2010.do','Y','8','');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>129</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>44</v>
@@ -2354,24 +2326,18 @@
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0009','0','업무 관리','','','Y','9','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0009','0','직원 조회','','intrEmpInqy2010.do','Y','9','');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>44</v>
@@ -2381,21 +2347,24 @@
       </c>
       <c r="J12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0010','0','업무 일지','MENU_0009','intrTaskInqy2010.do','Y','10','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0010','1','공유정보 관리','','','Y','10','');</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>44</v>
@@ -2405,21 +2374,21 @@
       </c>
       <c r="J13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0011','0','전자메일','MENU_0009','','Y','11','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0011','1','공지사항 관리','MENU_0010','intrBoardInqy1010.do','Y','11','');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>105</v>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>44</v>
@@ -2429,18 +2398,18 @@
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0012','0','Q&amp;A','','intrQnaInqy1010.do','Y','12','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0012','1','팝업 관리','MENU_0010','','Y','12','');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>44</v>
@@ -2450,24 +2419,21 @@
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0013','1','공유정보 관리','','','Y','13','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0013','1','전자결재 관리','','','Y','13','');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>44</v>
@@ -2477,21 +2443,24 @@
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0014','1','공지사항 관리','MENU_0013','intrBoardInqy1010.do','Y','14','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0014','1','기안서 조회','MENU_0013','','Y','14','');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>44</v>
@@ -2501,21 +2470,18 @@
       </c>
       <c r="J17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0015','1','팝업 관리','MENU_0013','','Y','15','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0015','1','템플릿 관리','MENU_0013','intrTempInqy1010.do','Y','15','');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>44</v>
@@ -2525,18 +2491,24 @@
       </c>
       <c r="J18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0016','1','메일 관리','MENU_0013','','Y','16','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0016','1','사내 관리','','','Y','16','');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>44</v>
@@ -2546,24 +2518,21 @@
       </c>
       <c r="J19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0017','1','사내 관리','','','Y','17','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0017','1','사원 관리','MENU_0016','intrEmpInqy1010.do','Y','17','');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>44</v>
@@ -2573,21 +2542,18 @@
       </c>
       <c r="J20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0018','1','사원 관리','MENU_0017','intrEmpInqy1010.do','Y','18','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0018','1','업무 관리','MENU_0016','','Y','18','');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>44</v>
@@ -2597,18 +2563,24 @@
       </c>
       <c r="J21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0019','1','업무일지 관리','MENU_0017','','Y','19','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0019','1','시스템 관리','','','Y','19','');</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>105</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>44</v>
@@ -2618,12 +2590,12 @@
       </c>
       <c r="J22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0020','1','전자결재 관리','','','Y','20','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0020','1','권한 관리','MENU_0019','intrAuthInqy1010.do','Y','20','');</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -2632,7 +2604,10 @@
         <v>69</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>44</v>
@@ -2642,24 +2617,24 @@
       </c>
       <c r="J23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0021','1','기안서 조회','MENU_0020','','Y','21','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0021','1','메뉴 권한 부여','MENU_0019','intrAuthInqy2010.do','Y','21','');</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>44</v>
@@ -2669,138 +2644,7 @@
       </c>
       <c r="J24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0022','1','템플릿 관리','MENU_0020','intrTempInqy1010.do','Y','22','');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="3">
-        <v>23</v>
-      </c>
-      <c r="J25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0023','1','템플릿 양식 관리','MENU_0020','','Y','23','');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="3">
-        <v>24</v>
-      </c>
-      <c r="J26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0024','1','시스템 관리','','','Y','24','');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="3">
-        <v>25</v>
-      </c>
-      <c r="J27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0025','1','권한 관리','MENU_0024','intrAuthInqy1010.do','Y','25','');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="3">
-        <v>26</v>
-      </c>
-      <c r="J28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0026','1','메뉴 권한 부여','MENU_0024','intrAuthInqy2010.do','Y','26','');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="3">
-        <v>27</v>
-      </c>
-      <c r="J29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0027','1','사용자 권한 부여','MENU_0024','intrAuthInqy3010.do','Y','27','');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0022','1','사용자 권한 부여','MENU_0019','intrAuthInqy3010.do','Y','22','');</v>
       </c>
     </row>
   </sheetData>
@@ -2866,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5C0E18-08F2-4775-BBBC-8EE5FD1068E1}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2881,7 +2725,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2890,10 +2734,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2907,10 +2751,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>44</v>

--- a/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
+++ b/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Documents\GitHub\hikr90\02. 프로젝트\01. 인트라넷\01. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9E7DD8-D99E-479D-9FB0-5E5F70CBDDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BA66F2-E562-43DF-AADA-F5C9A35C87C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="INTR_EMP" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="119">
   <si>
     <t>INTR_EMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>팝업 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전자결재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업무 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시스템 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,30 +326,6 @@
     <t>MENU_0020</t>
   </si>
   <si>
-    <t>MENU_0021</t>
-  </si>
-  <si>
-    <t>MENU_0022</t>
-  </si>
-  <si>
-    <t>MENU_0023</t>
-  </si>
-  <si>
-    <t>MENU_0024</t>
-  </si>
-  <si>
-    <t>MENU_0025</t>
-  </si>
-  <si>
-    <t>MENU_0026</t>
-  </si>
-  <si>
-    <t>MENU_0027</t>
-  </si>
-  <si>
-    <t>MENU_0029</t>
-  </si>
-  <si>
     <t>intrBoardInqy1010.do</t>
   </si>
   <si>
@@ -389,9 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MENU_0030</t>
-  </si>
-  <si>
     <t>템플릿 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,20 +377,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사내 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intrEmpInqy2010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MENU_0031</t>
-  </si>
-  <si>
-    <t>MENU_0032</t>
-  </si>
-  <si>
     <t>권한 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -517,11 +472,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업무 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직원 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무일지 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무일지 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrTaskInqy1010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED9CAE0-F0FC-46D6-87C7-B3C537CB4E4F}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1015,13 +982,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -1029,7 +996,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3"/>
@@ -1062,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0793A24B-BF25-4784-BAE3-FA6FA6686002}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1079,7 +1046,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1088,7 +1055,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
@@ -1105,7 +1072,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>43</v>
@@ -1124,7 +1091,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>52</v>
@@ -1136,13 +1103,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G33" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
+        <f t="shared" ref="G4:G22" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
         <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0002','Y',2,'');</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>53</v>
@@ -1160,7 +1127,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>54</v>
@@ -1178,7 +1145,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>48</v>
@@ -1196,7 +1163,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>55</v>
@@ -1214,7 +1181,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>56</v>
@@ -1232,7 +1199,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>57</v>
@@ -1250,7 +1217,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>58</v>
@@ -1268,7 +1235,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>59</v>
@@ -1286,7 +1253,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>60</v>
@@ -1304,7 +1271,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>61</v>
@@ -1322,10 +1289,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>44</v>
@@ -1340,10 +1307,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>44</v>
@@ -1358,10 +1325,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>44</v>
@@ -1376,10 +1343,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>44</v>
@@ -1394,10 +1361,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>44</v>
@@ -1412,10 +1379,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>44</v>
@@ -1430,10 +1397,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>44</v>
@@ -1448,10 +1415,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>44</v>
@@ -1465,205 +1432,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="3">
-        <v>21</v>
-      </c>
-      <c r="G23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0021','Y',21,'');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="5">
-        <v>22</v>
-      </c>
-      <c r="G24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0022','Y',22,'');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="3">
-        <v>23</v>
-      </c>
-      <c r="G25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0023','Y',23,'');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="5">
-        <v>24</v>
-      </c>
-      <c r="G26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0024','Y',24,'');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3">
-        <v>25</v>
-      </c>
-      <c r="G27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0025','Y',25,'');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="5">
-        <v>26</v>
-      </c>
-      <c r="G28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0026','Y',26,'');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="3">
-        <v>27</v>
-      </c>
-      <c r="G29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0027','Y',27,'');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="5">
-        <v>28</v>
-      </c>
-      <c r="G30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0029','Y',28,'');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="3">
-        <v>29</v>
-      </c>
-      <c r="G31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0030','Y',29,'');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="5">
-        <v>30</v>
-      </c>
-      <c r="G32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0031','Y',30,'');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="3">
-        <v>31</v>
-      </c>
-      <c r="G33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0032','Y',31,'');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1676,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F7A129-F7CC-4381-99E8-FA3C9B14D419}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1690,18 +1459,18 @@
     <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1716,18 +1485,40 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"');"</f>
+        <v>INSERT INTO INTR_AUTH_EMP VALUES('AUTH_0001','EMP_0000','Y',1,'NULL');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1812,7 +1603,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1820,10 +1611,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -1837,10 +1628,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -1885,7 +1676,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1893,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1907,7 +1698,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1961,13 +1752,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -2015,12 +1806,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
@@ -2061,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2148,7 +1939,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>44</v>
@@ -2157,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="4" t="str">
-        <f t="shared" ref="J4:J24" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
+        <f t="shared" ref="J4:J22" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
         <v>INSERT INTO INTR_MENU VALUES('MENU_0002','0','공지사항','MENU_0001','intrBoardInqy2010.do','Y','2','');</v>
       </c>
     </row>
@@ -2175,7 +1966,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>44</v>
@@ -2196,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>44</v>
@@ -2289,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>44</v>
@@ -2302,7 +2093,7 @@
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0008','0','업무 작성','','intrTaskInqy2010.do','Y','8','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0008','0','업무일지 작성','','intrTaskInqy2010.do','Y','8','');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2313,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>44</v>
@@ -2337,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>44</v>
@@ -2364,7 +2155,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>44</v>
@@ -2385,11 +2176,14 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
@@ -2398,18 +2192,18 @@
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0012','1','팝업 관리','MENU_0010','','Y','12','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0012','1','업무일지 조회','MENU_0010','intrTaskInqy1010.do','Y','12','');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>44</v>
@@ -2424,16 +2218,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>44</v>
@@ -2448,19 +2242,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>44</v>
@@ -2475,13 +2269,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>44</v>
@@ -2491,24 +2288,18 @@
       </c>
       <c r="J18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0016','1','사내 관리','','','Y','16','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0016','1','사원 관리','','intrEmpInqy1010.do','Y','16','');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>44</v>
@@ -2518,21 +2309,24 @@
       </c>
       <c r="J19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0017','1','사원 관리','MENU_0016','intrEmpInqy1010.do','Y','17','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0017','1','시스템 관리','','','Y','17','');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>44</v>
@@ -2542,18 +2336,24 @@
       </c>
       <c r="J20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0018','1','업무 관리','MENU_0016','','Y','18','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0018','1','권한 관리','MENU_0017','intrAuthInqy1010.do','Y','18','');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>44</v>
@@ -2563,24 +2363,24 @@
       </c>
       <c r="J21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0019','1','시스템 관리','','','Y','19','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0019','1','메뉴 권한 부여','MENU_0017','intrAuthInqy2010.do','Y','19','');</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>44</v>
@@ -2590,61 +2390,7 @@
       </c>
       <c r="J22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0020','1','권한 관리','MENU_0019','intrAuthInqy1010.do','Y','20','');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="3">
-        <v>21</v>
-      </c>
-      <c r="J23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0021','1','메뉴 권한 부여','MENU_0019','intrAuthInqy2010.do','Y','21','');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="3">
-        <v>22</v>
-      </c>
-      <c r="J24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0022','1','사용자 권한 부여','MENU_0019','intrAuthInqy3010.do','Y','22','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0020','1','사용자 권한 부여','MENU_0017','intrAuthInqy3010.do','Y','20','');</v>
       </c>
     </row>
   </sheetData>
@@ -2710,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5C0E18-08F2-4775-BBBC-8EE5FD1068E1}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2725,7 +2471,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2734,10 +2480,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2751,10 +2497,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>44</v>

--- a/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
+++ b/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Documents\GitHub\hikr90\02. 프로젝트\01. 인트라넷\01. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BA66F2-E562-43DF-AADA-F5C9A35C87C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0D7E6F-2525-4E67-950F-A70980188E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="INTR_EMP" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="INTR_AUTH" sheetId="11" r:id="rId9"/>
     <sheet name="INTR_AUTH_MENU" sheetId="12" r:id="rId10"/>
     <sheet name="INTR_AUTH_EMP" sheetId="13" r:id="rId11"/>
+    <sheet name="INTR_STATUS" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="131">
   <si>
     <t>INTR_EMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,18 +233,10 @@
     <t>MENU_0005</t>
   </si>
   <si>
-    <t>기안서 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결재 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결재 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MENU_0002</t>
   </si>
   <si>
@@ -286,10 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기안서 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시스템 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,9 +312,6 @@
     <t>MENU_0019</t>
   </si>
   <si>
-    <t>MENU_0020</t>
-  </si>
-  <si>
     <t>intrBoardInqy1010.do</t>
   </si>
   <si>
@@ -490,13 +476,74 @@
   <si>
     <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재내역 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재처리 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 반려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTR_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrAprvInqy1010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrAprvInqy1020.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrAprvInqy2010.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_0002</t>
+  </si>
+  <si>
+    <t>STAT_0003</t>
+  </si>
+  <si>
+    <t>STAT_0004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +578,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -546,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -569,13 +624,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -593,6 +657,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,13 +1052,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -996,7 +1066,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3"/>
@@ -1029,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0793A24B-BF25-4784-BAE3-FA6FA6686002}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1046,7 +1116,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1055,7 +1125,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
@@ -1072,7 +1142,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>43</v>
@@ -1091,10 +1161,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>44</v>
@@ -1103,16 +1173,16 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G22" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
+        <f t="shared" ref="G4:G21" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
         <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0002','Y',2,'');</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>44</v>
@@ -1127,10 +1197,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>44</v>
@@ -1145,7 +1215,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>48</v>
@@ -1163,10 +1233,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>44</v>
@@ -1181,10 +1251,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>44</v>
@@ -1199,10 +1269,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>44</v>
@@ -1217,10 +1287,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>44</v>
@@ -1235,10 +1305,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>44</v>
@@ -1253,10 +1323,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>44</v>
@@ -1271,10 +1341,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>44</v>
@@ -1289,10 +1359,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>44</v>
@@ -1307,10 +1377,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>44</v>
@@ -1325,10 +1395,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>44</v>
@@ -1343,10 +1413,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>44</v>
@@ -1361,10 +1431,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>44</v>
@@ -1379,10 +1449,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>44</v>
@@ -1397,10 +1467,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>44</v>
@@ -1414,25 +1484,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="5">
-        <v>20</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0020','Y',20,'');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1461,7 +1513,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1470,7 +1522,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1487,10 +1539,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>44</v>
@@ -1499,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"');"</f>
@@ -1514,6 +1566,149 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC8ED98-7F90-4288-96B3-9B1D940CB89B}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="14.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"');"</f>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0001','결재 진행','Y',1,'NULL');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" ref="G4:G7" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0002','결재 완료','Y',2,'NULL');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0003','결재 회수','Y',3,'NULL');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0004','결재 반려','Y',4,'NULL');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1603,7 +1798,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1611,10 +1806,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -1628,10 +1823,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -1676,7 +1871,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1684,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1698,7 +1893,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1752,13 +1947,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -1806,12 +2001,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
@@ -1852,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1927,7 +2122,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -1939,7 +2134,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>44</v>
@@ -1948,13 +2143,13 @@
         <v>2</v>
       </c>
       <c r="J4" s="4" t="str">
-        <f t="shared" ref="J4:J22" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
+        <f t="shared" ref="J4:J21" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
         <v>INSERT INTO INTR_MENU VALUES('MENU_0002','0','공지사항','MENU_0001','intrBoardInqy2010.do','Y','2','');</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1966,7 +2161,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>44</v>
@@ -1981,13 +2176,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>44</v>
@@ -2008,10 +2203,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>44</v>
@@ -2021,21 +2219,24 @@
       </c>
       <c r="J7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0005','0','기안서 작성','MENU_0004','','Y','5','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0005','0','결재내역 조회','MENU_0004','intrAprvInqy1010.do','Y','5','');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>44</v>
@@ -2045,204 +2246,210 @@
       </c>
       <c r="J8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0006','0','결재 조회','MENU_0004','','Y','6','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0006','0','결재처리 조회','MENU_0004','intrAprvInqy1020.do','Y','6','');</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>111</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0007','0','결재 처리','MENU_0004','','Y','7','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0007','0','업무일지 작성','','intrTaskInqy2010.do','Y','8','');</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0008','0','업무일지 작성','','intrTaskInqy2010.do','Y','8','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0008','0','직원 조회','','intrEmpInqy2010.do','Y','9','');</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0009','0','직원 조회','','intrEmpInqy2010.do','Y','9','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0009','1','공유정보 관리','','','Y','10','');</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0010','1','공유정보 관리','','','Y','10','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0010','1','공지사항 관리','MENU_0009','intrBoardInqy1010.do','Y','11','');</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0011','1','공지사항 관리','MENU_0010','intrBoardInqy1010.do','Y','11','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0011','1','업무일지 조회','MENU_0009','intrTaskInqy1010.do','Y','12','');</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0012','1','업무일지 조회','MENU_0010','intrTaskInqy1010.do','Y','12','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0012','1','전자결재 관리','','','Y','13','');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0013','1','전자결재 관리','','','Y','13','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0013','1','결재 조회','MENU_0012','intrAprvInqy2010.do','Y','14','');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0014','1','기안서 조회','MENU_0013','','Y','14','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0014','1','템플릿 관리','MENU_0012','intrTempInqy1010.do','Y','15','');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -2250,147 +2457,120 @@
       <c r="C17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G17" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0015','1','템플릿 관리','MENU_0013','intrTempInqy1010.do','Y','15','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0015','1','사원 관리','','intrEmpInqy1010.do','Y','16','');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0016','1','사원 관리','','intrEmpInqy1010.do','Y','16','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0016','1','시스템 관리','','','Y','17','');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>66</v>
+        <v>87</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0017','1','시스템 관리','','','Y','17','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0017','1','권한 관리','MENU_0016','intrAuthInqy1010.do','Y','18','');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0018','1','권한 관리','MENU_0017','intrAuthInqy1010.do','Y','18','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0018','1','메뉴 권한 부여','MENU_0016','intrAuthInqy2010.do','Y','19','');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G21" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0019','1','메뉴 권한 부여','MENU_0017','intrAuthInqy2010.do','Y','19','');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="3">
-        <v>20</v>
-      </c>
-      <c r="J22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0020','1','사용자 권한 부여','MENU_0017','intrAuthInqy3010.do','Y','20','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0019','1','사용자 권한 부여','MENU_0016','intrAuthInqy3010.do','Y','20','');</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2651,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2480,10 +2660,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2497,10 +2677,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>44</v>

--- a/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
+++ b/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Documents\GitHub\hikr90\02. 프로젝트\01. 인트라넷\01. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0D7E6F-2525-4E67-950F-A70980188E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D151F2-8876-4015-961B-BBB567B917DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
   <si>
     <t>INTR_EMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,22 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결재 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결재 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결재 반려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결재 회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INTR_STATUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,6 +521,36 @@
   </si>
   <si>
     <t>STAT_0004</t>
+  </si>
+  <si>
+    <t>STAT_0005</t>
+  </si>
+  <si>
+    <t>기안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_0006</t>
+  </si>
+  <si>
+    <t>임시저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -661,7 +675,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC8ED98-7F90-4288-96B3-9B1D940CB89B}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G6"/>
+      <selection activeCell="G3" sqref="G3:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1593,7 +1607,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1619,10 +1633,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>44</v>
@@ -1635,15 +1649,15 @@
       </c>
       <c r="G3" s="4" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"');"</f>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0001','결재 진행','Y',1,'NULL');</v>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0001','임시저장','Y',1,'NULL');</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>44</v>
@@ -1655,16 +1669,16 @@
         <v>114</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G7" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0002','결재 완료','Y',2,'NULL');</v>
+        <f t="shared" ref="G4:G8" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0002','기안','Y',2,'NULL');</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>44</v>
@@ -1677,15 +1691,15 @@
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0003','결재 회수','Y',3,'NULL');</v>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0003','결재','Y',3,'NULL');</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>44</v>
@@ -1698,17 +1712,55 @@
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0004','결재 반려','Y',4,'NULL');</v>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0004','참조','Y',4,'NULL');</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0005','반려','Y',5,'NULL');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0006','회수','Y',6,'NULL');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2209,7 +2261,7 @@
         <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>44</v>
@@ -2236,7 +2288,7 @@
         <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>44</v>
@@ -2407,7 +2459,7 @@
         <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>44</v>

--- a/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
+++ b/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Documents\GitHub\hikr90\02. 프로젝트\01. 인트라넷\01. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D151F2-8876-4015-961B-BBB567B917DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93AE9E8-15E5-44B1-AF54-F01D97C4A9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" firstSheet="1" activeTab="11" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="INTR_EMP" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="INTR_AUTH" sheetId="11" r:id="rId9"/>
     <sheet name="INTR_AUTH_MENU" sheetId="12" r:id="rId10"/>
     <sheet name="INTR_AUTH_EMP" sheetId="13" r:id="rId11"/>
-    <sheet name="INTR_STATUS" sheetId="16" r:id="rId12"/>
+    <sheet name="INTR_STATUS" sheetId="17" r:id="rId12"/>
+    <sheet name="INTR_STEP" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="144">
   <si>
     <t>INTR_EMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,10 +479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결재내역 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결재처리 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,9 +520,6 @@
     <t>STAT_0004</t>
   </si>
   <si>
-    <t>STAT_0005</t>
-  </si>
-  <si>
     <t>기안</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -546,10 +540,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STAT_0006</t>
-  </si>
-  <si>
-    <t>임시저장</t>
+    <t>결재목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTR_STEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEP_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEP_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEP_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEP_0002</t>
+  </si>
+  <si>
+    <t>STEP_0003</t>
+  </si>
+  <si>
+    <t>STEP_0004</t>
+  </si>
+  <si>
+    <t>STEP_0005</t>
+  </si>
+  <si>
+    <t>진행 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1589,11 +1624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC8ED98-7F90-4288-96B3-9B1D940CB89B}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D77433E-3897-4159-9194-4FD0F2873D6B}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1607,7 +1642,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1616,10 +1651,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1633,10 +1668,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>44</v>
@@ -1649,15 +1684,15 @@
       </c>
       <c r="G3" s="4" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"');"</f>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0001','임시저장','Y',1,'NULL');</v>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0001','임시 저장','Y',1,'NULL');</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>44</v>
@@ -1669,16 +1704,155 @@
         <v>114</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G8" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0002','기안','Y',2,'NULL');</v>
+        <f t="shared" ref="G4:G6" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0002','대기','Y',2,'NULL');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0003','진행 중','Y',3,'NULL');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO INTR_STATUS VALUES('STAT_0004','완료','Y',4,'NULL');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC8ED98-7F90-4288-96B3-9B1D940CB89B}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="14.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"');"</f>
+        <v>INSERT INTO INTR_STEP VALUES('STEP_0001','기안','Y',1,'NULL');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" ref="G4:G7" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
+        <v>INSERT INTO INTR_STEP VALUES('STEP_0002','결재','Y',2,'NULL');</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>44</v>
@@ -1691,15 +1865,15 @@
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0003','결재','Y',3,'NULL');</v>
+        <v>INSERT INTO INTR_STEP VALUES('STEP_0003','참조','Y',3,'NULL');</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>44</v>
@@ -1712,15 +1886,15 @@
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0004','참조','Y',4,'NULL');</v>
+        <v>INSERT INTO INTR_STEP VALUES('STEP_0004','반려','Y',4,'NULL');</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>44</v>
@@ -1733,32 +1907,11 @@
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0005','반려','Y',5,'NULL');</v>
+        <v>INSERT INTO INTR_STEP VALUES('STEP_0005','회수','Y',5,'NULL');</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0006','회수','Y',6,'NULL');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1978,7 +2131,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2102,7 +2255,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2255,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>44</v>
@@ -2271,7 +2424,7 @@
       </c>
       <c r="J7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0005','0','결재내역 조회','MENU_0004','intrAprvInqy1010.do','Y','5','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0005','0','결재목록 조회','MENU_0004','intrAprvInqy1010.do','Y','5','');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2282,13 +2435,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>44</v>
@@ -2459,7 +2612,7 @@
         <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>44</v>

--- a/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
+++ b/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Documents\GitHub\hikr90\02. 프로젝트\01. 인트라넷\01. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93AE9E8-15E5-44B1-AF54-F01D97C4A9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304F54F2-C6A2-471C-B715-A7185DA8E7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" firstSheet="1" activeTab="11" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
@@ -24,8 +24,7 @@
     <sheet name="INTR_AUTH" sheetId="11" r:id="rId9"/>
     <sheet name="INTR_AUTH_MENU" sheetId="12" r:id="rId10"/>
     <sheet name="INTR_AUTH_EMP" sheetId="13" r:id="rId11"/>
-    <sheet name="INTR_STATUS" sheetId="17" r:id="rId12"/>
-    <sheet name="INTR_STEP" sheetId="16" r:id="rId13"/>
+    <sheet name="INTR_STEP" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="133">
   <si>
     <t>INTR_EMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,18 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STATUS_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATUS_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTR_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intrAprvInqy1010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,19 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STAT_0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT_0002</t>
-  </si>
-  <si>
-    <t>STAT_0003</t>
-  </si>
-  <si>
-    <t>STAT_0004</t>
-  </si>
-  <si>
     <t>기안</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,22 +544,6 @@
   </si>
   <si>
     <t>STEP_0005</t>
-  </si>
-  <si>
-    <t>진행 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임시 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1624,149 +1582,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D77433E-3897-4159-9194-4FD0F2873D6B}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="14.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"');"</f>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0001','임시 저장','Y',1,'NULL');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G6" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0002','대기','Y',2,'NULL');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0003','진행 중','Y',3,'NULL');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_STATUS VALUES('STAT_0004','완료','Y',4,'NULL');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC8ED98-7F90-4288-96B3-9B1D940CB89B}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1781,7 +1600,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1790,10 +1609,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1807,10 +1626,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>44</v>
@@ -1828,10 +1647,10 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>44</v>
@@ -1849,10 +1668,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>44</v>
@@ -1870,10 +1689,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>44</v>
@@ -1891,10 +1710,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>44</v>
@@ -2408,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>44</v>
@@ -2441,7 +2260,7 @@
         <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>44</v>
@@ -2612,7 +2431,7 @@
         <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>44</v>

--- a/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
+++ b/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Documents\GitHub\hikr90\02. 프로젝트\01. 인트라넷\01. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304F54F2-C6A2-471C-B715-A7185DA8E7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A585B0-BCEB-47CA-AE60-98E0C09EF679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" firstSheet="1" activeTab="11" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
   <si>
     <t>INTR_EMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,18 +478,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결재처리 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intrAprvInqy1010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>intrAprvInqy1020.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intrAprvInqy2010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,18 +498,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>참조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결재목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INTR_STEP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,7 +527,12 @@
     <t>STEP_0004</t>
   </si>
   <si>
-    <t>STEP_0005</t>
+    <t>기안 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1109,7 +1098,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1583,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC8ED98-7F90-4288-96B3-9B1D940CB89B}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1600,7 +1589,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1609,10 +1598,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1626,10 +1615,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>44</v>
@@ -1647,10 +1636,10 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>44</v>
@@ -1662,16 +1651,16 @@
         <v>114</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G7" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
+        <f t="shared" ref="G4:G6" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
         <v>INSERT INTO INTR_STEP VALUES('STEP_0002','결재','Y',2,'NULL');</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>44</v>
@@ -1689,10 +1678,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>44</v>
@@ -1709,28 +1698,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_STEP VALUES('STEP_0005','회수','Y',5,'NULL');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2074,7 +2042,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2227,13 +2195,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>44</v>
@@ -2243,7 +2211,7 @@
       </c>
       <c r="J7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0005','0','결재목록 조회','MENU_0004','intrAprvInqy1010.do','Y','5','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0005','0','기안 목록 조회','MENU_0004','intrAprvInqy1010.do','Y','5','');</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2254,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>44</v>
@@ -2270,7 +2238,7 @@
       </c>
       <c r="J8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0006','0','결재처리 조회','MENU_0004','intrAprvInqy1020.do','Y','6','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0006','0','결재 목록 조회','MENU_0004','intrAprvInqy2010.do','Y','6','');</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2431,7 +2399,7 @@
         <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>44</v>

--- a/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
+++ b/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Documents\GitHub\hikr90\02. 프로젝트\01. 인트라넷\01. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A585B0-BCEB-47CA-AE60-98E0C09EF679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038C16B4-D483-4907-9C60-59DA63A191EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" firstSheet="1" activeTab="11" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" firstSheet="1" activeTab="6" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="INTR_EMP" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="128">
   <si>
     <t>INTR_EMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,10 +233,6 @@
     <t>MENU_0005</t>
   </si>
   <si>
-    <t>결재 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MENU_0002</t>
   </si>
   <si>
@@ -275,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전자결재 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시스템 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,12 +298,6 @@
     <t>MENU_0017</t>
   </si>
   <si>
-    <t>MENU_0018</t>
-  </si>
-  <si>
-    <t>MENU_0019</t>
-  </si>
-  <si>
     <t>intrBoardInqy1010.do</t>
   </si>
   <si>
@@ -532,6 +518,14 @@
   </si>
   <si>
     <t>결재 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEP_0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,13 +1042,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -1062,7 +1056,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3"/>
@@ -1095,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0793A24B-BF25-4784-BAE3-FA6FA6686002}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G3" sqref="G3:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1106,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1121,7 +1115,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
@@ -1138,7 +1132,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>43</v>
@@ -1157,10 +1151,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>44</v>
@@ -1169,16 +1163,16 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G21" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
+        <f t="shared" ref="G4:G19" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
         <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0002','Y',2,'');</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>44</v>
@@ -1193,10 +1187,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>44</v>
@@ -1211,7 +1205,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>48</v>
@@ -1229,10 +1223,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>44</v>
@@ -1247,10 +1241,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>44</v>
@@ -1265,10 +1259,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>44</v>
@@ -1283,10 +1277,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>44</v>
@@ -1301,10 +1295,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>44</v>
@@ -1319,10 +1313,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>44</v>
@@ -1337,10 +1331,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>44</v>
@@ -1355,10 +1349,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>44</v>
@@ -1373,10 +1367,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>44</v>
@@ -1391,10 +1385,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>44</v>
@@ -1409,10 +1403,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>44</v>
@@ -1427,10 +1421,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>44</v>
@@ -1444,43 +1438,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="5">
-        <v>18</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0018','Y',18,'');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3">
-        <v>19</v>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_AUTH_MENU VALUES('AUTH_0001','MENU_0019','Y',19,'');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1509,7 +1467,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1518,7 +1476,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1535,10 +1493,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>44</v>
@@ -1547,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"');"</f>
@@ -1572,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC8ED98-7F90-4288-96B3-9B1D940CB89B}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1589,7 +1547,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1598,10 +1556,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1615,10 +1573,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>44</v>
@@ -1627,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"');"</f>
@@ -1636,10 +1594,10 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>44</v>
@@ -1648,19 +1606,19 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G6" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
+        <f t="shared" ref="G4:G7" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
         <v>INSERT INTO INTR_STEP VALUES('STEP_0002','결재','Y',2,'NULL');</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>44</v>
@@ -1669,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1678,10 +1636,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>44</v>
@@ -1690,15 +1648,36 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G6" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"','"&amp;C6&amp;"',"&amp;D6&amp;",'"&amp;E6&amp;"');"</f>
         <v>INSERT INTO INTR_STEP VALUES('STEP_0004','반려','Y',4,'NULL');</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO INTR_STEP VALUES('STEP_0005','취소','Y',5,'NULL');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1790,7 +1769,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1798,10 +1777,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -1815,10 +1794,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -1863,7 +1842,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1871,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1885,7 +1864,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1939,13 +1918,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -1993,12 +1972,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
@@ -2039,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2114,7 +2093,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -2126,7 +2105,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>44</v>
@@ -2135,13 +2114,13 @@
         <v>2</v>
       </c>
       <c r="J4" s="4" t="str">
-        <f t="shared" ref="J4:J21" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
+        <f t="shared" ref="J4:J19" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"');"</f>
         <v>INSERT INTO INTR_MENU VALUES('MENU_0002','0','공지사항','MENU_0001','intrBoardInqy2010.do','Y','2','');</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2153,7 +2132,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>44</v>
@@ -2168,13 +2147,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>44</v>
@@ -2195,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>44</v>
@@ -2216,19 +2195,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>44</v>
@@ -2243,16 +2222,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>44</v>
@@ -2267,16 +2246,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>44</v>
@@ -2291,13 +2270,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>44</v>
@@ -2312,19 +2291,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>44</v>
@@ -2339,19 +2318,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>44</v>
@@ -2366,13 +2345,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>77</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>44</v>
@@ -2382,24 +2364,21 @@
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0012','1','전자결재 관리','','','Y','13','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0012','1','템플릿 관리','','intrTempInqy1010.do','Y','13','');</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>44</v>
@@ -2409,24 +2388,18 @@
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0013','1','결재 조회','MENU_0012','intrAprvInqy2010.do','Y','14','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0013','1','사원 관리','','intrEmpInqy1010.do','Y','14','');</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>44</v>
@@ -2436,21 +2409,24 @@
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0014','1','템플릿 관리','MENU_0012','intrTempInqy1010.do','Y','15','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0014','1','시스템 관리','','','Y','15','');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>44</v>
@@ -2460,18 +2436,24 @@
       </c>
       <c r="J17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0015','1','사원 관리','','intrEmpInqy1010.do','Y','16','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0015','1','권한 관리','MENU_0014','intrAuthInqy1010.do','Y','16','');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>44</v>
@@ -2481,24 +2463,24 @@
       </c>
       <c r="J18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0016','1','시스템 관리','','','Y','17','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0016','1','메뉴 권한 부여','MENU_0014','intrAuthInqy2010.do','Y','17','');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>44</v>
@@ -2508,61 +2490,7 @@
       </c>
       <c r="J19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0017','1','권한 관리','MENU_0016','intrAuthInqy1010.do','Y','18','');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="3">
-        <v>19</v>
-      </c>
-      <c r="J20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0018','1','메뉴 권한 부여','MENU_0016','intrAuthInqy2010.do','Y','19','');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="3">
-        <v>20</v>
-      </c>
-      <c r="J21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_MENU VALUES('MENU_0019','1','사용자 권한 부여','MENU_0016','intrAuthInqy3010.do','Y','20','');</v>
+        <v>INSERT INTO INTR_MENU VALUES('MENU_0017','1','사용자 권한 부여','MENU_0014','intrAuthInqy3010.do','Y','18','');</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2571,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2652,10 +2580,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2669,10 +2597,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>44</v>

--- a/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
+++ b/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Documents\GitHub\hikr90\02. 프로젝트\01. 인트라넷\01. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038C16B4-D483-4907-9C60-59DA63A191EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601740AF-1EBD-487A-9653-B48F3A78D854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" firstSheet="1" activeTab="6" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="3" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="INTR_EMP" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="159">
   <si>
     <t>INTR_EMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intrTaskInqy2010.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,10 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hikr90@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직원 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,6 +518,128 @@
   </si>
   <si>
     <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-0000-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_0002</t>
+  </si>
+  <si>
+    <t>EMP_0003</t>
+  </si>
+  <si>
+    <t>EMP_0004</t>
+  </si>
+  <si>
+    <t>DEPT_0002</t>
+  </si>
+  <si>
+    <t>DEPT_0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPT_0003</t>
+  </si>
+  <si>
+    <t>DEPT_0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_0002</t>
+  </si>
+  <si>
+    <t>GRADE_0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE_0003</t>
+  </si>
+  <si>
+    <t>GRADE_0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-0000-0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-0000-0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-0000-0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-0000-0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>TEST3</t>
+  </si>
+  <si>
+    <t>TEST4</t>
+  </si>
+  <si>
+    <t>관리 부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +647,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +687,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -624,12 +747,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,9 +780,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -968,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED9CAE0-F0FC-46D6-87C7-B3C537CB4E4F}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1045,21 +1178,27 @@
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3"/>
+      <c r="E3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1072,11 +1211,175 @@
       <c r="M3" s="3"/>
       <c r="O3" s="4" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"',"&amp;L3&amp;",'"&amp;M3&amp;"');"</f>
-        <v>INSERT INTO INTR_EMP VALUES('EMP_0000','DEPT_0001','GRADE_0001','관리자','','','hikr90@gmail.com','','','ADMIN','ADMIN',TO_CHAR(SYSDATE,'YYYYMMDD'),'');</v>
+        <v>INSERT INTO INTR_EMP VALUES('EMP_0000','DEPT_0001','GRADE_0001','관리자','M','010-0000-0000','','주소','상세 주소','ADMIN','ADMIN',TO_CHAR(SYSDATE,'YYYYMMDD'),'');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="O4" s="4" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"','"&amp;J4&amp;"','"&amp;K4&amp;"',"&amp;L4&amp;",'"&amp;M4&amp;"');"</f>
+        <v>INSERT INTO INTR_EMP VALUES('EMP_0001','DEPT_0001','GRADE_0001','테스트1','M','010-0000-0001','','주소','상세 주소','TEST1','TEST1',TO_CHAR(SYSDATE,'YYYYMMDD'),'');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="O5" s="4" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"',"&amp;L5&amp;",'"&amp;M5&amp;"');"</f>
+        <v>INSERT INTO INTR_EMP VALUES('EMP_0002','DEPT_0002','GRADE_0002','테스트2','M','010-0000-0002','','주소','상세 주소','TEST2','TEST2',TO_CHAR(SYSDATE,'YYYYMMDD'),'');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="O6" s="4" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"',"&amp;L6&amp;",'"&amp;M6&amp;"');"</f>
+        <v>INSERT INTO INTR_EMP VALUES('EMP_0003','DEPT_0002','GRADE_0002','테스트3','M','010-0000-0003','','주소','상세 주소','TEST3','TEST3',TO_CHAR(SYSDATE,'YYYYMMDD'),'');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="O7" s="4" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A7&amp;"','"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"','"&amp;K7&amp;"',"&amp;L7&amp;",'"&amp;M7&amp;"');"</f>
+        <v>INSERT INTO INTR_EMP VALUES('EMP_0004','DEPT_0003','GRADE_0003','테스트4','M','010-0000-0004','','주소','상세 주소','TEST4','TEST4',TO_CHAR(SYSDATE,'YYYYMMDD'),'');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1106,7 +1409,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1115,7 +1418,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
@@ -1132,7 +1435,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>43</v>
@@ -1151,7 +1454,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>49</v>
@@ -1169,7 +1472,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>50</v>
@@ -1187,7 +1490,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>51</v>
@@ -1205,7 +1508,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>48</v>
@@ -1223,7 +1526,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>52</v>
@@ -1241,7 +1544,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>53</v>
@@ -1259,7 +1562,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>54</v>
@@ -1277,7 +1580,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>55</v>
@@ -1295,7 +1598,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>56</v>
@@ -1313,7 +1616,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>57</v>
@@ -1331,7 +1634,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>58</v>
@@ -1349,7 +1652,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>64</v>
@@ -1367,7 +1670,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>65</v>
@@ -1385,7 +1688,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>66</v>
@@ -1403,7 +1706,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>67</v>
@@ -1421,7 +1724,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>68</v>
@@ -1454,7 +1757,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1467,7 +1770,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1476,7 +1779,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1493,7 +1796,7 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>70</v>
@@ -1505,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"');"</f>
@@ -1547,7 +1850,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1556,10 +1859,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1573,10 +1876,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>44</v>
@@ -1585,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"');"</f>
@@ -1594,10 +1897,10 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>44</v>
@@ -1606,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" ref="G4:G7" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"');"</f>
@@ -1615,10 +1918,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>44</v>
@@ -1627,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1636,10 +1939,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>44</v>
@@ -1648,7 +1951,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" ref="G6" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"','"&amp;C6&amp;"',"&amp;D6&amp;",'"&amp;E6&amp;"');"</f>
@@ -1657,10 +1960,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>44</v>
@@ -1669,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1693,7 +1996,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1750,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBC74AC-2674-45FB-86AF-FCA80D29BB2D}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I3" sqref="I3:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1761,57 +2064,106 @@
     <col min="1" max="1" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1">
+        <v>154</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"');"</f>
-        <v>INSERT INTO INTR_DEPT VALUES('DEPT_0001','관리','','Y','1','');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"');"</f>
+        <v>INSERT INTO INTR_DEPT VALUES('DEPT_0001','관리 부서','',TO_CHAR(SYSDATE,'YYYYMMDD'),'Y','1','');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" ref="I4:I5" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;",'"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"');"</f>
+        <v>INSERT INTO INTR_DEPT VALUES('DEPT_0002','부서1','',TO_CHAR(SYSDATE,'YYYYMMDD'),'Y','2','');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO INTR_DEPT VALUES('DEPT_0003','부서2','',TO_CHAR(SYSDATE,'YYYYMMDD'),'Y','3','');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1824,64 +2176,113 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BF0D6D-0E7F-4154-8426-EB9944C240E3}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"');"</f>
-        <v>INSERT INTO INTR_GRADE VALUES('GRADE_0001','관리자','Y','1','');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="str">
+        <f>"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"',"&amp;C3&amp;",'"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"');"</f>
+        <v>INSERT INTO INTR_GRADE VALUES('GRADE_0001','관리자',TO_CHAR(SYSDATE,'YYYYMMDD'),'Y','1','');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" ref="H4:H5" si="0">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"',"&amp;C4&amp;",'"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"');"</f>
+        <v>INSERT INTO INTR_GRADE VALUES('GRADE_0002','직급1',TO_CHAR(SYSDATE,'YYYYMMDD'),'Y','2','');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO INTR_GRADE VALUES('GRADE_0003','직급2',TO_CHAR(SYSDATE,'YYYYMMDD'),'Y','3','');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1918,13 +2319,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -2020,7 +2421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60644FAD-9B99-49D5-B453-33EA3359146C}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2132,7 +2533,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>44</v>
@@ -2174,13 +2575,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>44</v>
@@ -2201,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>44</v>
@@ -2228,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>44</v>
@@ -2252,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>44</v>
@@ -2276,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>44</v>
@@ -2324,13 +2725,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>44</v>
@@ -2351,10 +2752,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>44</v>
@@ -2375,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>74</v>
@@ -2420,13 +2821,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>44</v>
@@ -2453,7 +2854,7 @@
         <v>65</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>44</v>
@@ -2480,7 +2881,7 @@
         <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>44</v>
@@ -2571,7 +2972,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2580,10 +2981,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2597,10 +2998,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>44</v>

--- a/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
+++ b/02. 프로젝트/01. 인트라넷/01. 설계/인트라넷 기초데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김태현\Documents\GitHub\hikr90\02. 프로젝트\01. 인트라넷\01. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601740AF-1EBD-487A-9653-B48F3A78D854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45129BE3-7A3A-4D1D-BCD7-F4F90B48EEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="3" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" activeTab="11" xr2:uid="{B204C4DA-9ED1-4F0A-AC7E-C11DE778500E}"/>
   </bookViews>
   <sheets>
     <sheet name="INTR_EMP" sheetId="3" r:id="rId1"/>
@@ -472,10 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>참조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -517,10 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,6 +632,14 @@
   </si>
   <si>
     <t>부서2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 반려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 취소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1187,17 +1187,17 @@
         <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>15</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>77</v>
@@ -1225,26 +1225,26 @@
         <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>16</v>
@@ -1257,35 +1257,35 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>16</v>
@@ -1298,35 +1298,35 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>16</v>
@@ -1339,35 +1339,35 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
@@ -1835,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC8ED98-7F90-4288-96B3-9B1D940CB89B}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1850,7 +1850,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>111</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>112</v>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>44</v>
@@ -1939,10 +1939,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>44</v>
@@ -1955,15 +1955,15 @@
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" ref="G6" si="1">"INSERT INTO "&amp;$A$1&amp;" VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"','"&amp;C6&amp;"',"&amp;D6&amp;",'"&amp;E6&amp;"');"</f>
-        <v>INSERT INTO INTR_STEP VALUES('STEP_0004','반려','Y',4,'NULL');</v>
+        <v>INSERT INTO INTR_STEP VALUES('STEP_0004','결재 반려','Y',4,'NULL');</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>44</v>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO INTR_STEP VALUES('STEP_0005','취소','Y',5,'NULL');</v>
+        <v>INSERT INTO INTR_STEP VALUES('STEP_0005','결재 취소','Y',5,'NULL');</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2056,7 +2056,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I5"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2065,7 +2065,7 @@
     <col min="2" max="2" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -2104,12 +2104,12 @@
         <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="1">
@@ -2122,15 +2122,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="1">
@@ -2143,15 +2143,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="1">
@@ -2178,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BF0D6D-0E7F-4154-8426-EB9944C240E3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2187,7 +2187,7 @@
     <col min="1" max="1" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -2228,7 +2228,7 @@
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="1">
@@ -2241,15 +2241,15 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="1">
@@ -2262,15 +2262,15 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="1">
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>51</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>51</v>
@@ -2906,7 +2906,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
